--- a/loader21/点検結果表サンプル.xlsx
+++ b/loader21/点検結果表サンプル.xlsx
@@ -8,86 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshihiko-takeuchi\Documents\git\study\loader21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFE1837-50FB-44A7-8F7D-48658ABFE4DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410F8F94-A0B4-48C4-9C4B-A8AEBA5236AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-17520" windowWidth="29040" windowHeight="17640" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="点検結果表【建築物】" sheetId="28" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">点検結果表【建築物】!$A$1:$AP$11</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">点検結果表【建築物】!$3:$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">点検結果表【建築物】!$A$1:$AP$7</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">点検結果表【建築物】!#REF!</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>点検結果</t>
-    <rPh sb="0" eb="2">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>担当
-点検者
-番号</t>
-    <rPh sb="0" eb="2">
-      <t>タントウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指摘なし</t>
-    <rPh sb="0" eb="2">
-      <t>シテキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>番号</t>
-    <rPh sb="0" eb="2">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要是正</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ゼセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>既存
-不適格</t>
-    <rPh sb="0" eb="2">
-      <t>キゾン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>フテキカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>(2)</t>
   </si>
@@ -128,29 +65,6 @@
     </rPh>
     <rPh sb="6" eb="9">
       <t>ケンチクブツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>点検項目等</t>
-    <rPh sb="0" eb="2">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>トウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -255,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -459,63 +373,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -541,7 +399,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -581,14 +439,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -605,48 +478,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -656,41 +487,14 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,11 +837,9 @@
   <sheetPr codeName="Sheet1">
     <tabColor indexed="12"/>
   </sheetPr>
-  <dimension ref="A1:AQ70"/>
+  <dimension ref="A1:AQ66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1048,46 +850,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="38" t="s">
-        <v>13</v>
+      <c r="B1" s="15" t="s">
+        <v>7</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
       <c r="AN1" s="4"/>
       <c r="AO1" s="4"/>
       <c r="AP1" s="4"/>
@@ -1136,452 +938,436 @@
       <c r="AP2" s="4"/>
     </row>
     <row r="3" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="31"/>
+    </row>
+    <row r="4" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="14"/>
+    </row>
+    <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="14"/>
+    </row>
+    <row r="6" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="27" t="s">
-        <v>0</v>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="23" t="s">
+        <v>13</v>
       </c>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="23" t="s">
-        <v>1</v>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="13" t="s">
+        <v>9</v>
       </c>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="24"/>
-    </row>
-    <row r="4" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="21" t="s">
-        <v>2</v>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="14"/>
+    </row>
+    <row r="7" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="AH4" s="21"/>
-      <c r="AI4" s="28" t="s">
-        <v>4</v>
+      <c r="B7" s="26" t="s">
+        <v>16</v>
       </c>
-      <c r="AJ4" s="28"/>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="29"/>
-      <c r="AM4" s="29"/>
-      <c r="AN4" s="21"/>
-      <c r="AO4" s="21"/>
-      <c r="AP4" s="25"/>
-    </row>
-    <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="31" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="31"/>
-      <c r="AN5" s="21"/>
-      <c r="AO5" s="21"/>
-      <c r="AP5" s="25"/>
-    </row>
-    <row r="6" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="32"/>
-      <c r="AJ6" s="32"/>
-      <c r="AK6" s="32"/>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="26"/>
-    </row>
-    <row r="7" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="14"/>
-      <c r="AM7" s="14"/>
-      <c r="AN7" s="14"/>
-      <c r="AO7" s="14"/>
-      <c r="AP7" s="15"/>
-    </row>
-    <row r="8" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH8" s="30"/>
-      <c r="AI8" s="30"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="30"/>
-      <c r="AL8" s="30"/>
-      <c r="AM8" s="30"/>
-      <c r="AN8" s="30"/>
-      <c r="AO8" s="30"/>
-      <c r="AP8" s="34"/>
-    </row>
-    <row r="9" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH9" s="30"/>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="30"/>
-      <c r="AM9" s="30"/>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="34"/>
-    </row>
-    <row r="10" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="30" t="s">
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AH10" s="30"/>
-      <c r="AI10" s="30"/>
-      <c r="AJ10" s="30"/>
-      <c r="AK10" s="30"/>
-      <c r="AL10" s="30"/>
-      <c r="AM10" s="30"/>
-      <c r="AN10" s="30"/>
-      <c r="AO10" s="30"/>
-      <c r="AP10" s="34"/>
-    </row>
-    <row r="11" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="42"/>
-      <c r="AG11" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH11" s="39"/>
-      <c r="AI11" s="39"/>
-      <c r="AJ11" s="39"/>
-      <c r="AK11" s="39"/>
-      <c r="AL11" s="39"/>
-      <c r="AM11" s="39"/>
-      <c r="AN11" s="39"/>
-      <c r="AO11" s="39"/>
-      <c r="AP11" s="43"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="20"/>
+    </row>
+    <row r="8" spans="1:42" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+    </row>
+    <row r="9" spans="1:42" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+    </row>
+    <row r="10" spans="1:42" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+    </row>
+    <row r="11" spans="1:42" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
     </row>
     <row r="12" spans="1:42" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
@@ -2375,181 +2161,181 @@
       <c r="AO29" s="11"/>
       <c r="AP29" s="11"/>
     </row>
-    <row r="30" spans="1:42" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11"/>
-      <c r="AF30" s="11"/>
-      <c r="AG30" s="11"/>
-      <c r="AH30" s="11"/>
-      <c r="AI30" s="11"/>
-      <c r="AJ30" s="11"/>
-      <c r="AK30" s="11"/>
-      <c r="AL30" s="11"/>
-      <c r="AM30" s="11"/>
-      <c r="AN30" s="11"/>
-      <c r="AO30" s="11"/>
-      <c r="AP30" s="11"/>
-    </row>
-    <row r="31" spans="1:42" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="11"/>
-      <c r="AE31" s="11"/>
-      <c r="AF31" s="11"/>
-      <c r="AG31" s="11"/>
-      <c r="AH31" s="11"/>
-      <c r="AI31" s="11"/>
-      <c r="AJ31" s="11"/>
-      <c r="AK31" s="11"/>
-      <c r="AL31" s="11"/>
-      <c r="AM31" s="11"/>
-      <c r="AN31" s="11"/>
-      <c r="AO31" s="11"/>
-      <c r="AP31" s="11"/>
-    </row>
-    <row r="32" spans="1:42" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="11"/>
-      <c r="AD32" s="11"/>
-      <c r="AE32" s="11"/>
-      <c r="AF32" s="11"/>
-      <c r="AG32" s="11"/>
-      <c r="AH32" s="11"/>
-      <c r="AI32" s="11"/>
-      <c r="AJ32" s="11"/>
-      <c r="AK32" s="11"/>
-      <c r="AL32" s="11"/>
-      <c r="AM32" s="11"/>
-      <c r="AN32" s="11"/>
-      <c r="AO32" s="11"/>
-      <c r="AP32" s="11"/>
-    </row>
-    <row r="33" spans="1:42" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="11"/>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="11"/>
-      <c r="AF33" s="11"/>
-      <c r="AG33" s="11"/>
-      <c r="AH33" s="11"/>
-      <c r="AI33" s="11"/>
-      <c r="AJ33" s="11"/>
-      <c r="AK33" s="11"/>
-      <c r="AL33" s="11"/>
-      <c r="AM33" s="11"/>
-      <c r="AN33" s="11"/>
-      <c r="AO33" s="11"/>
-      <c r="AP33" s="11"/>
+    <row r="30" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="5"/>
+    </row>
+    <row r="31" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="5"/>
+    </row>
+    <row r="32" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="5"/>
+    </row>
+    <row r="33" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
     </row>
     <row r="34" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
@@ -3652,312 +3438,127 @@
       <c r="AP58" s="5"/>
     </row>
     <row r="59" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-      <c r="AA59" s="5"/>
-      <c r="AB59" s="5"/>
-      <c r="AC59" s="5"/>
-      <c r="AD59" s="5"/>
-      <c r="AE59" s="5"/>
-      <c r="AF59" s="5"/>
-      <c r="AG59" s="5"/>
-      <c r="AH59" s="5"/>
-      <c r="AI59" s="5"/>
-      <c r="AJ59" s="5"/>
-      <c r="AK59" s="5"/>
-      <c r="AL59" s="5"/>
-      <c r="AM59" s="5"/>
-      <c r="AN59" s="5"/>
-      <c r="AO59" s="5"/>
-      <c r="AP59" s="5"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
+      <c r="AF59" s="3"/>
+      <c r="AG59" s="3"/>
+      <c r="AH59" s="3"/>
+      <c r="AI59" s="3"/>
+      <c r="AJ59" s="3"/>
+      <c r="AK59" s="3"/>
+      <c r="AL59" s="3"/>
+      <c r="AM59" s="3"/>
+      <c r="AN59" s="3"/>
+      <c r="AO59" s="3"/>
+      <c r="AP59" s="3"/>
+      <c r="AQ59" s="3"/>
     </row>
     <row r="60" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-      <c r="AA60" s="5"/>
-      <c r="AB60" s="5"/>
-      <c r="AC60" s="5"/>
-      <c r="AD60" s="5"/>
-      <c r="AE60" s="5"/>
-      <c r="AF60" s="5"/>
-      <c r="AG60" s="5"/>
-      <c r="AH60" s="5"/>
-      <c r="AI60" s="5"/>
-      <c r="AJ60" s="5"/>
-      <c r="AK60" s="5"/>
-      <c r="AL60" s="5"/>
-      <c r="AM60" s="5"/>
-      <c r="AN60" s="5"/>
-      <c r="AO60" s="5"/>
-      <c r="AP60" s="5"/>
-    </row>
-    <row r="61" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-      <c r="AA61" s="5"/>
-      <c r="AB61" s="5"/>
-      <c r="AC61" s="5"/>
-      <c r="AD61" s="5"/>
-      <c r="AE61" s="5"/>
-      <c r="AF61" s="5"/>
-      <c r="AG61" s="5"/>
-      <c r="AH61" s="5"/>
-      <c r="AI61" s="5"/>
-      <c r="AJ61" s="5"/>
-      <c r="AK61" s="5"/>
-      <c r="AL61" s="5"/>
-      <c r="AM61" s="5"/>
-      <c r="AN61" s="5"/>
-      <c r="AO61" s="5"/>
-      <c r="AP61" s="5"/>
-    </row>
-    <row r="62" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="5"/>
-      <c r="AB62" s="5"/>
-      <c r="AC62" s="5"/>
-      <c r="AD62" s="5"/>
-      <c r="AE62" s="5"/>
-      <c r="AF62" s="5"/>
-      <c r="AG62" s="5"/>
-      <c r="AH62" s="5"/>
-      <c r="AI62" s="5"/>
-      <c r="AJ62" s="5"/>
-      <c r="AK62" s="5"/>
-      <c r="AL62" s="5"/>
-      <c r="AM62" s="5"/>
-      <c r="AN62" s="5"/>
-      <c r="AO62" s="5"/>
-      <c r="AP62" s="5"/>
-    </row>
-    <row r="63" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-      <c r="AA63" s="3"/>
-      <c r="AB63" s="3"/>
-      <c r="AC63" s="3"/>
-      <c r="AD63" s="3"/>
-      <c r="AE63" s="3"/>
-      <c r="AF63" s="3"/>
-      <c r="AG63" s="3"/>
-      <c r="AH63" s="3"/>
-      <c r="AI63" s="3"/>
-      <c r="AJ63" s="3"/>
-      <c r="AK63" s="3"/>
-      <c r="AL63" s="3"/>
-      <c r="AM63" s="3"/>
-      <c r="AN63" s="3"/>
-      <c r="AO63" s="3"/>
-      <c r="AP63" s="3"/>
-      <c r="AQ63" s="3"/>
-    </row>
-    <row r="64" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
-      <c r="AA64" s="3"/>
-      <c r="AB64" s="3"/>
-      <c r="AC64" s="3"/>
-      <c r="AD64" s="3"/>
-      <c r="AE64" s="3"/>
-      <c r="AF64" s="3"/>
-      <c r="AG64" s="3"/>
-      <c r="AH64" s="3"/>
-      <c r="AI64" s="3"/>
-      <c r="AJ64" s="3"/>
-      <c r="AK64" s="3"/>
-      <c r="AL64" s="3"/>
-      <c r="AM64" s="3"/>
-      <c r="AN64" s="3"/>
-      <c r="AO64" s="3"/>
-      <c r="AP64" s="3"/>
-      <c r="AQ64" s="3"/>
-    </row>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+      <c r="AC60" s="3"/>
+      <c r="AD60" s="3"/>
+      <c r="AE60" s="3"/>
+      <c r="AF60" s="3"/>
+      <c r="AG60" s="3"/>
+      <c r="AH60" s="3"/>
+      <c r="AI60" s="3"/>
+      <c r="AJ60" s="3"/>
+      <c r="AK60" s="3"/>
+      <c r="AL60" s="3"/>
+      <c r="AM60" s="3"/>
+      <c r="AN60" s="3"/>
+      <c r="AO60" s="3"/>
+      <c r="AP60" s="3"/>
+      <c r="AQ60" s="3"/>
+    </row>
+    <row r="61" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="AK10:AM10"/>
-    <mergeCell ref="AN10:AP10"/>
+  <mergeCells count="26">
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="B3:AP3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="N4:AF4"/>
+    <mergeCell ref="N6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="N5:AF5"/>
+    <mergeCell ref="AK6:AM6"/>
+    <mergeCell ref="AN6:AP6"/>
     <mergeCell ref="B1:AM1"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="N11:AF11"/>
-    <mergeCell ref="AN9:AP9"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AK9:AM9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AN11:AP11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AM11"/>
-    <mergeCell ref="A3:AF4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:AF6"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="N10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="N9:AF9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="B7:AP7"/>
-    <mergeCell ref="B8:M8"/>
-    <mergeCell ref="N8:AF8"/>
-    <mergeCell ref="AG4:AH6"/>
-    <mergeCell ref="AN3:AP6"/>
-    <mergeCell ref="AG3:AM3"/>
-    <mergeCell ref="AI4:AM4"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK5:AM6"/>
-    <mergeCell ref="AI5:AJ6"/>
-    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="N7:AF7"/>
+    <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AN7:AP7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AM7"/>
+    <mergeCell ref="B6:M6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.55118110236220474" right="0.19685039370078741" top="0.6692913385826772" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
